--- a/DB/Cafe.xlsx
+++ b/DB/Cafe.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hyunwoo/Desktop/NAVI_DB/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yundowon/Documents/Project/CHIC-KW-Navigation-BE/DB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D9DE5B2-1B27-FA4D-B8F4-99CF420ED802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B99430D-6E09-5B4E-9505-0189CE291B3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="640" yWindow="740" windowWidth="28100" windowHeight="16840" xr2:uid="{3F0A6E82-07CD-1447-AD93-69554115C170}"/>
   </bookViews>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="80">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -154,10 +153,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>요거프레스 광운대점</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>카페 베르데</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -186,10 +181,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>매머드익스프레스</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>도넛</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -219,6 +210,150 @@
   </si>
   <si>
     <t>츄러스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 노원구 석계로 98-2 광운대역내</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>location_x</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>location_y</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 노원구 석계로 98-1 1층 커피는기억의끌림</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 노원구 석계로 95 7호, 8호, 10호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 노원구 석계로 104 (월계동)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 노원구 석계로 103 동우빌딩 1층</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 노원구 석계로 105</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 노원구 광운로 65</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 노원구 광운로 64 1층 와플대학</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 노원구 광운로 62 (월계동) OSSE 2층</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 노원구 광운로 59 1층 103호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 노원구 광운로 60 1층</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 노원구 석계로15길 17 1층</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 노원구 석계로15길 17</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 노원구 광운로 44 준빌딩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 노원구 광운로 43 1층</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 노원구 광운로12길 5 1, 2층</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 노원구 광운로 35-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 노원구 광운로7길 2 1층 일부(월계동)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 노원구 광운로 20 지하1층 80주년기념관호(월계동, 광운대학교)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 노원구 광운로 29 1층</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 노원구 광운로 27 1층</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 노원구 광운로 25</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 노원구 광운로 25 2층</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 노원구 광운로 20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 노원구 광운로 20 광운대학교 80주년 기념관 L층</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 노원구 광운로 21 동해예술회관 1층</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>요거프레소 광운대점</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 노원구 광운로 17-9 성진빌딩 1층</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 노원구 광운로 17-3 1층 카페 베르데</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 노원구 광운로 15 금혁빌딩 104호, 105호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 노원구 광운로2길 6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 노원구 석계로13길 25-1 1층</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 노원구 석계로13길 23 1층</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 노원구 석계로13길 40 101호</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -255,15 +390,14 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
-      <family val="2"/>
+      <family val="3"/>
       <charset val="129"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
+      <sz val="13"/>
+      <color rgb="FF333333"/>
+      <name val="Malgun Gothic"/>
+      <family val="2"/>
       <charset val="129"/>
     </font>
   </fonts>
@@ -639,7 +773,7 @@
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -666,262 +800,575 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="E1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8">
       <c r="B2" t="s">
         <v>4</v>
       </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>36</v>
+      </c>
+      <c r="E2">
+        <v>127.061126</v>
+      </c>
+      <c r="F2">
+        <v>37.625484999999998</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="B3" t="s">
         <v>16</v>
       </c>
+      <c r="C3" t="s">
+        <v>47</v>
+      </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>37</v>
+      </c>
+      <c r="E3">
+        <v>127.06107900000001</v>
+      </c>
+      <c r="F3">
+        <v>37.6233407</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="B4" t="s">
         <v>5</v>
       </c>
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>38</v>
+      </c>
+      <c r="E4">
+        <v>127.06116900000001</v>
+      </c>
+      <c r="F4">
+        <v>37.622854099999998</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="B5" t="s">
         <v>6</v>
       </c>
+      <c r="C5" t="s">
+        <v>49</v>
+      </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>37</v>
+      </c>
+      <c r="E5">
+        <v>127.060637</v>
+      </c>
+      <c r="F5">
+        <v>37.623133699999997</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="B6" t="s">
         <v>7</v>
       </c>
+      <c r="C6" t="s">
+        <v>50</v>
+      </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>37</v>
+      </c>
+      <c r="E6">
+        <v>127.060659</v>
+      </c>
+      <c r="F6">
+        <v>37.6228184</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="B7" t="s">
         <v>8</v>
       </c>
+      <c r="C7" t="s">
+        <v>51</v>
+      </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>38</v>
+      </c>
+      <c r="E7">
+        <v>127.060535</v>
+      </c>
+      <c r="F7">
+        <v>37.622836399999997</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="B8" t="s">
         <v>9</v>
       </c>
+      <c r="C8" t="s">
+        <v>52</v>
+      </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>39</v>
+      </c>
+      <c r="E8">
+        <v>127.059969</v>
+      </c>
+      <c r="F8">
+        <v>37.623152099999999</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="B9" t="s">
         <v>10</v>
       </c>
+      <c r="C9" t="s">
+        <v>53</v>
+      </c>
       <c r="D9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="E9">
+        <v>127.06014999999999</v>
+      </c>
+      <c r="F9">
+        <v>37.622809599999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="19">
       <c r="B10" t="s">
         <v>11</v>
       </c>
+      <c r="C10" t="s">
+        <v>54</v>
+      </c>
       <c r="D10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="E10" s="3">
+        <v>127.060036</v>
+      </c>
+      <c r="F10" s="3">
+        <v>37.622710599999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="19">
       <c r="B11" t="s">
         <v>12</v>
       </c>
+      <c r="C11" t="s">
+        <v>55</v>
+      </c>
       <c r="D11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="E11" s="3">
+        <v>127.059606</v>
+      </c>
+      <c r="F11">
+        <v>37.622737800000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="19">
       <c r="B12" t="s">
         <v>13</v>
       </c>
+      <c r="C12" t="s">
+        <v>56</v>
+      </c>
       <c r="D12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="E12" s="3">
+        <v>127.059968</v>
+      </c>
+      <c r="F12" s="3">
+        <v>37.622638500000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="19">
       <c r="B13" t="s">
         <v>14</v>
       </c>
+      <c r="C13" t="s">
+        <v>57</v>
+      </c>
       <c r="D13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="E13" s="3">
+        <v>127.06112299999999</v>
+      </c>
+      <c r="F13" s="3">
+        <v>37.622367599999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="19">
       <c r="B14" t="s">
         <v>15</v>
       </c>
+      <c r="C14" t="s">
+        <v>58</v>
+      </c>
       <c r="D14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="E14" s="3">
+        <v>127.06112299999999</v>
+      </c>
+      <c r="F14" s="3">
+        <v>37.622367599999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="19">
       <c r="B15" t="s">
         <v>17</v>
       </c>
+      <c r="C15" t="s">
+        <v>59</v>
+      </c>
       <c r="D15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="E15" s="3">
+        <v>127.05940099999999</v>
+      </c>
+      <c r="F15" s="3">
+        <v>37.6213324</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="19">
       <c r="B16" t="s">
         <v>18</v>
       </c>
+      <c r="C16" t="s">
+        <v>60</v>
+      </c>
       <c r="D16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4">
+        <v>37</v>
+      </c>
+      <c r="E16" s="3">
+        <v>127.059004</v>
+      </c>
+      <c r="F16" s="3">
+        <v>37.621305499999998</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="19">
       <c r="B17" t="s">
         <v>19</v>
       </c>
+      <c r="C17" t="s">
+        <v>61</v>
+      </c>
       <c r="D17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4">
+        <v>37</v>
+      </c>
+      <c r="E17" s="3">
+        <v>127.05943499999999</v>
+      </c>
+      <c r="F17" s="3">
+        <v>37.621206200000003</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="19">
       <c r="B18" t="s">
         <v>20</v>
       </c>
+      <c r="C18" t="s">
+        <v>62</v>
+      </c>
       <c r="D18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4">
+        <v>41</v>
+      </c>
+      <c r="E18" s="3">
+        <v>127.05861899999999</v>
+      </c>
+      <c r="F18" s="3">
+        <v>37.620792199999997</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="19">
       <c r="B19" t="s">
         <v>21</v>
       </c>
+      <c r="C19" t="s">
+        <v>63</v>
+      </c>
       <c r="D19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4">
+        <v>37</v>
+      </c>
+      <c r="E19" s="3">
+        <v>127.05862999999999</v>
+      </c>
+      <c r="F19" s="3">
+        <v>37.620683999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="19">
       <c r="B20" t="s">
         <v>22</v>
       </c>
+      <c r="C20" t="s">
+        <v>64</v>
+      </c>
       <c r="D20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4">
+        <v>37</v>
+      </c>
+      <c r="E20" s="3">
+        <v>127.05885600000001</v>
+      </c>
+      <c r="F20" s="3">
+        <v>37.6195217</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="19">
       <c r="B21" t="s">
         <v>23</v>
       </c>
+      <c r="C21" t="s">
+        <v>65</v>
+      </c>
       <c r="D21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4">
+        <v>37</v>
+      </c>
+      <c r="E21" s="3">
+        <v>127.058403</v>
+      </c>
+      <c r="F21" s="3">
+        <v>37.620314700000002</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="19">
       <c r="B22" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="C22" t="s">
+        <v>66</v>
       </c>
       <c r="D22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4">
+        <v>37</v>
+      </c>
+      <c r="E22" s="3">
+        <v>127.058301</v>
+      </c>
+      <c r="F22" s="3">
+        <v>37.620206699999997</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="19">
       <c r="B23" t="s">
         <v>24</v>
       </c>
+      <c r="C23" t="s">
+        <v>67</v>
+      </c>
       <c r="D23" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4">
+        <v>37</v>
+      </c>
+      <c r="E23" s="3">
+        <v>127.058176</v>
+      </c>
+      <c r="F23" s="3">
+        <v>37.620053599999999</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="19">
       <c r="B24" t="s">
         <v>25</v>
       </c>
+      <c r="C24" t="s">
+        <v>68</v>
+      </c>
       <c r="D24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4">
+        <v>42</v>
+      </c>
+      <c r="E24" s="3">
+        <v>127.058176</v>
+      </c>
+      <c r="F24" s="3">
+        <v>37.620053599999999</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="19">
       <c r="B25" t="s">
         <v>26</v>
       </c>
+      <c r="C25" t="s">
+        <v>69</v>
+      </c>
       <c r="D25" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4">
+        <v>41</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" spans="2:6" ht="19">
       <c r="B26" t="s">
         <v>27</v>
       </c>
+      <c r="C26" t="s">
+        <v>70</v>
+      </c>
       <c r="D26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4">
+        <v>38</v>
+      </c>
+      <c r="E26" s="3">
+        <v>127.05885600000001</v>
+      </c>
+      <c r="F26" s="3">
+        <v>37.6195217</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" ht="19">
       <c r="B27" t="s">
         <v>28</v>
       </c>
+      <c r="C27" t="s">
+        <v>71</v>
+      </c>
       <c r="D27" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4">
+        <v>43</v>
+      </c>
+      <c r="E27" s="3">
+        <v>127.057395</v>
+      </c>
+      <c r="F27" s="3">
+        <v>37.619918800000001</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" ht="19">
       <c r="B28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28" s="3">
+        <v>127.057292</v>
+      </c>
+      <c r="F28" s="3">
+        <v>37.619396299999998</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" ht="19">
+      <c r="B29" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="29" spans="2:4">
-      <c r="B29" t="s">
+      <c r="C29" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29" s="3">
+        <v>127.057542</v>
+      </c>
+      <c r="F29" s="3">
+        <v>37.619297000000003</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" ht="19">
+      <c r="B30" t="s">
         <v>30</v>
       </c>
-      <c r="D29" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4">
-      <c r="B30" t="s">
+      <c r="C30" t="s">
+        <v>75</v>
+      </c>
+      <c r="D30" t="s">
+        <v>37</v>
+      </c>
+      <c r="E30" s="3">
+        <v>127.057575</v>
+      </c>
+      <c r="F30" s="3">
+        <v>37.619053800000003</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" ht="19">
+      <c r="B31" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="31" spans="2:4">
-      <c r="B31" t="s">
+      <c r="C31" t="s">
+        <v>76</v>
+      </c>
+      <c r="D31" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31" s="3">
+        <v>127.057405</v>
+      </c>
+      <c r="F31" s="3">
+        <v>37.618062799999997</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" ht="19">
+      <c r="B32" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="32" spans="2:4">
-      <c r="B32" t="s">
+      <c r="C32" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32" t="s">
+        <v>37</v>
+      </c>
+      <c r="E32" s="3">
+        <v>127.061325</v>
+      </c>
+      <c r="F32" s="3">
+        <v>37.620151100000001</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" ht="19">
+      <c r="B33" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="33" spans="2:6">
-      <c r="B33" t="s">
+      <c r="C33" t="s">
+        <v>78</v>
+      </c>
+      <c r="D33" t="s">
+        <v>37</v>
+      </c>
+      <c r="E33" s="3">
+        <v>127.06154100000001</v>
+      </c>
+      <c r="F33" s="3">
+        <v>37.620196100000001</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" ht="19">
+      <c r="B34" t="s">
         <v>34</v>
       </c>
-      <c r="F33" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6">
-      <c r="B34" t="s">
-        <v>35</v>
+      <c r="C34" t="s">
+        <v>79</v>
+      </c>
+      <c r="D34" t="s">
+        <v>37</v>
+      </c>
+      <c r="E34" s="3">
+        <v>127.061213</v>
+      </c>
+      <c r="F34" s="3">
+        <v>37.620953100000001</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>